--- a/indicadores/tablas/230101.xlsx
+++ b/indicadores/tablas/230101.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -66,12 +66,6 @@
     <t xml:space="preserve">Vivienda</t>
   </si>
   <si>
-    <t xml:space="preserve">DIMENSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguridad jurídica de la tenencia</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONINDICADOR</t>
   </si>
   <si>
@@ -94,6 +88,18 @@
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Cantidad de personas que residen en viviendas de las cuales son propietarios del inmueble (ya pago o en proceso) pero no del terreno; son ocupantes gratuitos (en préstamo), en relación de dependencia o sin permiso del propietario / Cantidad total de personas en viviendas particulares) x10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPOIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
   </si>
 </sst>
 </file>
@@ -591,6 +597,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/indicadores/tablas/230101.xlsx
+++ b/indicadores/tablas/230101.xlsx
@@ -429,7 +429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -539,7 +539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/230101.xlsx
+++ b/indicadores/tablas/230101.xlsx
@@ -429,7 +429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -539,7 +539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/230101.xlsx
+++ b/indicadores/tablas/230101.xlsx
@@ -81,7 +81,7 @@
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador mide el porcentaje de personas residiendo en viviendas con tenencia insegura.</t>
+    <t xml:space="preserve">El indicador mide el porcentaje de personas residiendo en viviendas con tenencia insegura. Esta situación es aqeulla en que las personas residen en viviendas de las cuales son propietarios del inmueble (ya pago o en proceso) pero no del terreno; son ocupantes gratuitos (en préstamo), en relación de dependencia o sin permiso del propietario.</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>

--- a/indicadores/tablas/230101.xlsx
+++ b/indicadores/tablas/230101.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,91 +21,114 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
     <t xml:space="preserve">2009</t>
   </si>
   <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de personas en hogares con tenencia insegura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Vivienda</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
+    <t xml:space="preserve">conindicador</t>
   </si>
   <si>
     <t xml:space="preserve">Tenencia insegura de la vivienda</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de personas en hogares con tenencia insegura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador mide el porcentaje de personas residiendo en viviendas con tenencia insegura. Esta situación es aqeulla en que las personas residen en viviendas de las cuales son propietarios del inmueble (ya pago o en proceso) pero no del terreno; son ocupantes gratuitos (en préstamo), en relación de dependencia o sin permiso del propietario.</t>
   </si>
   <si>
-    <t xml:space="preserve">CÁLCULO</t>
+    <t xml:space="preserve">calculo</t>
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Cantidad de personas que residen en viviendas de las cuales son propietarios del inmueble (ya pago o en proceso) pero no del terreno; son ocupantes gratuitos (en préstamo), en relación de dependencia o sin permiso del propietario / Cantidad total de personas en viviendas particulares) x10</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
+En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -424,12 +447,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -444,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>29.4</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>29.9</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>30.1</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>29.9</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="6">
@@ -476,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>30.3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -492,7 +515,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>29.8</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="9">
@@ -500,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="10">
@@ -508,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="11">
@@ -516,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>29.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -524,7 +547,31 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>28.3</v>
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>29.4</v>
       </c>
     </row>
   </sheetData>
@@ -534,75 +581,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
